--- a/ConfigurationFiles/2-Score_weight_PL.xlsx
+++ b/ConfigurationFiles/2-Score_weight_PL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81026621-3EE3-4F4E-9639-BC85195DF856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,19 +397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,67 +420,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
